--- a/Fisica-Experimental/Semama.6.2.xlsx
+++ b/Fisica-Experimental/Semama.6.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4to_ciclo\F.Experimental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programacion_y_mucho_mas\MyGithub\r-probability-and-statistics\Fisica-Experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="disco_naranja" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q54" sqref="I1:Q54"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,8 +6342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
